--- a/Table/Table_xls/c宠物相关/c宠物灵兽提升.xlsx
+++ b/Table/Table_xls/c宠物相关/c宠物灵兽提升.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -654,10 +654,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -684,22 +684,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -707,30 +691,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,23 +719,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,22 +766,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,13 +779,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -820,7 +789,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,9 +819,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -891,6 +891,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -903,13 +909,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +927,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,37 +1011,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +1035,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,25 +1077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,79 +1089,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,17 +1112,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,6 +1129,60 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,15 +1204,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1177,47 +1213,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1226,163 +1226,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1391,14 +1391,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1431,6 +1431,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1439,9 +1442,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="58">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1841,27 +1848,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B83" sqref="B83:B85"/>
+      <selection pane="bottomRight" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="9.25454545454545" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="10" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="10" customWidth="1"/>
     <col min="4" max="4" width="26" style="10" customWidth="1"/>
-    <col min="5" max="5" width="18.2545454545455" style="10" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="10" customWidth="1"/>
     <col min="6" max="6" width="21" style="10" customWidth="1"/>
-    <col min="7" max="7" width="19.7545454545455" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.8727272727273" style="10" customWidth="1"/>
-    <col min="9" max="9" width="14.2545454545455" style="10" customWidth="1"/>
+    <col min="7" max="7" width="19.75" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.8703703703704" style="10" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="10" customWidth="1"/>
     <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
@@ -1869,16 +1876,16 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -1901,99 +1908,99 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="14">
         <v>900001</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="15">
         <v>50</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="15">
         <v>50</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="15">
         <v>50</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="15">
         <v>150</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="15">
         <v>100</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="15">
         <v>50</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="15">
         <v>60</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" s="11" customFormat="1" customHeight="1" spans="1:12">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="14">
         <v>900001</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>2</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="15">
         <v>50</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="15">
         <v>50</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="15">
         <v>50</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="15">
         <v>150</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="15">
         <v>100</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="15">
         <v>50</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="15">
         <v>60</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" s="11" customFormat="1" customHeight="1" spans="1:10">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="15">
         <v>900001</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="15">
         <v>3</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="15">
         <v>50</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="15">
         <v>50</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="15">
         <v>50</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="15">
         <v>150</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="15">
         <v>100</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="15">
         <v>50</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2001,99 +2008,99 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>900002</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="15">
         <v>50</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="15">
         <v>50</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="15">
         <v>50</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="15">
         <v>150</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="15">
         <v>100</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="15">
         <v>50</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="15">
         <v>60</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" s="11" customFormat="1" customHeight="1" spans="1:12">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>900002</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="15">
         <v>50</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="15">
         <v>50</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="15">
         <v>50</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="15">
         <v>150</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="15">
         <v>100</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="15">
         <v>50</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="15">
         <v>60</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" s="11" customFormat="1" customHeight="1" spans="1:10">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>900002</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="15">
         <v>3</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="15">
         <v>50</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="15">
         <v>50</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="15">
         <v>50</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="15">
         <v>150</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="15">
         <v>100</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="15">
         <v>50</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2101,31 +2108,31 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <v>900003</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="15">
         <v>1</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="15">
         <v>50</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="15">
         <v>50</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="15">
         <v>50</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="15">
         <v>150</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="15">
         <v>100</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="15">
         <v>50</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2133,31 +2140,31 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="14">
         <v>900003</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="15">
         <v>2</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="15">
         <v>50</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="15">
         <v>50</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="15">
         <v>50</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="15">
         <v>150</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="15">
         <v>100</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="15">
         <v>50</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2165,31 +2172,31 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="15">
         <v>900003</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <v>3</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="15">
         <v>50</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="15">
         <v>50</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="15">
         <v>50</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="15">
         <v>150</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="15">
         <v>100</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="15">
         <v>50</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2197,31 +2204,31 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="14">
         <v>900004</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="15">
         <v>1</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="15">
         <v>50</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="15">
         <v>50</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="15">
         <v>50</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="15">
         <v>150</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="15">
         <v>100</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="15">
         <v>50</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2229,31 +2236,31 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="14">
         <v>900004</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="15">
         <v>2</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="15">
         <v>50</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="15">
         <v>50</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="15">
         <v>50</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="15">
         <v>150</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="15">
         <v>100</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="15">
         <v>50</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2261,31 +2268,31 @@
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="14">
         <v>900004</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="15">
         <v>3</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="15">
         <v>50</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="15">
         <v>50</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="15">
         <v>50</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="15">
         <v>150</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="15">
         <v>100</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="15">
         <v>50</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2293,31 +2300,31 @@
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="14">
         <v>900005</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="15">
         <v>1</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="15">
         <v>50</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="15">
         <v>50</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="15">
         <v>50</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="15">
         <v>150</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="15">
         <v>100</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="15">
         <v>50</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2325,31 +2332,31 @@
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="14">
         <v>900005</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="15">
         <v>2</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="15">
         <v>50</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="15">
         <v>50</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="15">
         <v>50</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="15">
         <v>150</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="15">
         <v>100</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="15">
         <v>50</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2357,31 +2364,31 @@
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="15">
         <v>900005</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="15">
         <v>3</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="15">
         <v>50</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="15">
         <v>50</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="15">
         <v>50</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="15">
         <v>150</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="15">
         <v>100</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="15">
         <v>50</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2389,31 +2396,31 @@
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="14">
         <v>900006</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="15">
         <v>1</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="15">
         <v>50</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="15">
         <v>50</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="15">
         <v>50</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="15">
         <v>150</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="15">
         <v>100</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="15">
         <v>50</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2421,31 +2428,31 @@
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="14">
         <v>900006</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="15">
         <v>2</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="15">
         <v>50</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="15">
         <v>50</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="15">
         <v>50</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="15">
         <v>150</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="15">
         <v>100</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="15">
         <v>50</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2453,31 +2460,31 @@
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="14">
         <v>900006</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="15">
         <v>3</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="15">
         <v>50</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="15">
         <v>50</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="15">
         <v>50</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="15">
         <v>150</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="15">
         <v>100</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="15">
         <v>50</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2485,31 +2492,31 @@
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="14">
         <v>900007</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="15">
         <v>1</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="15">
         <v>50</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="15">
         <v>50</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="15">
         <v>50</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="15">
         <v>150</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="15">
         <v>100</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="15">
         <v>50</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2517,31 +2524,31 @@
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="14">
         <v>900007</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="15">
         <v>2</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="15">
         <v>50</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="15">
         <v>50</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="15">
         <v>50</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="15">
         <v>150</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="15">
         <v>100</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="15">
         <v>50</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2549,31 +2556,31 @@
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="15">
         <v>900007</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="15">
         <v>3</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="15">
         <v>50</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="15">
         <v>50</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="15">
         <v>50</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="15">
         <v>150</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="15">
         <v>100</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="15">
         <v>50</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2581,31 +2588,31 @@
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="14">
         <v>900008</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="15">
         <v>1</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="15">
         <v>50</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="15">
         <v>50</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="15">
         <v>50</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="15">
         <v>150</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="15">
         <v>100</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="15">
         <v>50</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2613,31 +2620,31 @@
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="14">
         <v>900008</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="15">
         <v>2</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="15">
         <v>50</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="15">
         <v>50</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="15">
         <v>50</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="15">
         <v>150</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="15">
         <v>100</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="15">
         <v>50</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2645,31 +2652,31 @@
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="14">
         <v>900008</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="15">
         <v>3</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="15">
         <v>50</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="15">
         <v>50</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="15">
         <v>50</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="15">
         <v>150</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="15">
         <v>100</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="15">
         <v>50</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2677,31 +2684,31 @@
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="14">
         <v>900009</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="15">
         <v>1</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="15">
         <v>50</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="15">
         <v>50</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="15">
         <v>50</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="15">
         <v>150</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="15">
         <v>100</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="15">
         <v>50</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2709,31 +2716,31 @@
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="14">
         <v>900009</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="15">
         <v>2</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="15">
         <v>50</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="15">
         <v>50</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="15">
         <v>50</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="15">
         <v>150</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="15">
         <v>100</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="15">
         <v>50</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2741,31 +2748,31 @@
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="15">
         <v>900009</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="15">
         <v>3</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="15">
         <v>50</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="15">
         <v>50</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="15">
         <v>50</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="15">
         <v>150</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="15">
         <v>100</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="15">
         <v>50</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2773,31 +2780,31 @@
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="14">
         <v>900010</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="15">
         <v>1</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="15">
         <v>50</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="15">
         <v>50</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="15">
         <v>50</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="15">
         <v>150</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="15">
         <v>100</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="15">
         <v>50</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2805,31 +2812,31 @@
       <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="14">
         <v>900010</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="15">
         <v>2</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="15">
         <v>50</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="15">
         <v>50</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="15">
         <v>50</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="15">
         <v>150</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="15">
         <v>100</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="15">
         <v>50</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2837,31 +2844,31 @@
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="14">
         <v>900010</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="15">
         <v>3</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="15">
         <v>50</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="15">
         <v>50</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="15">
         <v>50</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="15">
         <v>150</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="15">
         <v>100</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="15">
         <v>50</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2869,31 +2876,31 @@
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="14">
         <v>900011</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="15">
         <v>1</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="15">
         <v>50</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="15">
         <v>50</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="15">
         <v>50</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="15">
         <v>150</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="15">
         <v>100</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="15">
         <v>50</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2901,31 +2908,31 @@
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="14">
         <v>900011</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="15">
         <v>2</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="15">
         <v>50</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="15">
         <v>50</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="15">
         <v>50</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="15">
         <v>150</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="15">
         <v>100</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="15">
         <v>50</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2933,31 +2940,31 @@
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="15">
         <v>900011</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="15">
         <v>3</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="15">
         <v>50</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="15">
         <v>50</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="15">
         <v>50</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="15">
         <v>150</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="15">
         <v>100</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="15">
         <v>50</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2965,31 +2972,31 @@
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="14">
         <v>900012</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="15">
         <v>1</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="15">
         <v>50</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="15">
         <v>50</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="15">
         <v>50</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="15">
         <v>150</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="15">
         <v>100</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="15">
         <v>50</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="15">
         <v>60</v>
       </c>
     </row>
@@ -2997,31 +3004,31 @@
       <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="14">
         <v>900012</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="15">
         <v>2</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="15">
         <v>50</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="15">
         <v>50</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="15">
         <v>50</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="15">
         <v>150</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="15">
         <v>100</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="15">
         <v>50</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3029,31 +3036,31 @@
       <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="14">
         <v>900012</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="15">
         <v>3</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="15">
         <v>50</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="15">
         <v>50</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="15">
         <v>50</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="15">
         <v>150</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="15">
         <v>100</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="15">
         <v>50</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3061,31 +3068,31 @@
       <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="14">
         <v>900013</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="15">
         <v>1</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="15">
         <v>50</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="15">
         <v>50</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="15">
         <v>50</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="15">
         <v>150</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="15">
         <v>100</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="15">
         <v>50</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3093,31 +3100,31 @@
       <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="14">
         <v>900013</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="15">
         <v>2</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="15">
         <v>50</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="15">
         <v>50</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="15">
         <v>50</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="15">
         <v>150</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="15">
         <v>100</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="15">
         <v>50</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3125,31 +3132,31 @@
       <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="15">
         <v>900013</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="15">
         <v>3</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="15">
         <v>50</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="15">
         <v>50</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="15">
         <v>50</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="15">
         <v>150</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="15">
         <v>100</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="15">
         <v>50</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3157,31 +3164,31 @@
       <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="14">
         <v>900014</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="15">
         <v>1</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="15">
         <v>50</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="15">
         <v>50</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="15">
         <v>50</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="15">
         <v>150</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="15">
         <v>100</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="15">
         <v>50</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3189,31 +3196,31 @@
       <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="14">
         <v>900014</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="15">
         <v>2</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="15">
         <v>50</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="15">
         <v>50</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="15">
         <v>50</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="15">
         <v>150</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="15">
         <v>100</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="15">
         <v>50</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3221,31 +3228,31 @@
       <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="14">
         <v>900014</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="15">
         <v>3</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="15">
         <v>50</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="15">
         <v>50</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="15">
         <v>50</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="15">
         <v>150</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="15">
         <v>100</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="15">
         <v>50</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3253,31 +3260,31 @@
       <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="14">
         <v>900015</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="15">
         <v>1</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="15">
         <v>50</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="15">
         <v>50</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="15">
         <v>50</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="15">
         <v>150</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="15">
         <v>100</v>
       </c>
-      <c r="I44" s="14">
+      <c r="I44" s="15">
         <v>50</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J44" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3285,31 +3292,31 @@
       <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="14">
         <v>900015</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="15">
         <v>2</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="15">
         <v>50</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="15">
         <v>50</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="15">
         <v>50</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="15">
         <v>150</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="15">
         <v>100</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="15">
         <v>50</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3317,31 +3324,31 @@
       <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="15">
         <v>900015</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="15">
         <v>3</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="15">
         <v>50</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="15">
         <v>50</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="15">
         <v>50</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="15">
         <v>150</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="15">
         <v>100</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="15">
         <v>50</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3349,31 +3356,31 @@
       <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="14">
         <v>900016</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="15">
         <v>1</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="15">
         <v>50</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="15">
         <v>50</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="15">
         <v>50</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="15">
         <v>150</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="15">
         <v>100</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="15">
         <v>50</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3381,31 +3388,31 @@
       <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="14">
         <v>900016</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="15">
         <v>2</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="15">
         <v>50</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="15">
         <v>50</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="15">
         <v>50</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="15">
         <v>150</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="15">
         <v>100</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="15">
         <v>50</v>
       </c>
-      <c r="J48" s="14">
+      <c r="J48" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3413,31 +3420,31 @@
       <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="14">
         <v>900016</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="15">
         <v>3</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="15">
         <v>50</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="15">
         <v>50</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="15">
         <v>50</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="15">
         <v>150</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="15">
         <v>100</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I49" s="15">
         <v>50</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3445,31 +3452,31 @@
       <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="16">
         <v>999980</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="15">
         <v>1</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="15">
         <v>50</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="15">
         <v>50</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="15">
         <v>50</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="15">
         <v>150</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="15">
         <v>100</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I50" s="15">
         <v>50</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3477,31 +3484,31 @@
       <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="16">
         <v>999980</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="15">
         <v>2</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="15">
         <v>50</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="15">
         <v>50</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="15">
         <v>50</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="15">
         <v>150</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="15">
         <v>100</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="15">
         <v>50</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3509,31 +3516,31 @@
       <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="16">
         <v>999980</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="15">
         <v>3</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="15">
         <v>50</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="15">
         <v>50</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="15">
         <v>50</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="15">
         <v>150</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="15">
         <v>100</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52" s="15">
         <v>50</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3541,31 +3548,31 @@
       <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="17">
         <v>999981</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="15">
         <v>1</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="15">
         <v>50</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="15">
         <v>50</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="15">
         <v>50</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="15">
         <v>150</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="15">
         <v>100</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53" s="15">
         <v>50</v>
       </c>
-      <c r="J53" s="14">
+      <c r="J53" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3573,31 +3580,31 @@
       <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="17">
         <v>999981</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="15">
         <v>2</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="15">
         <v>50</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="15">
         <v>50</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="15">
         <v>50</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="15">
         <v>150</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="15">
         <v>100</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54" s="15">
         <v>50</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3605,31 +3612,31 @@
       <c r="A55" s="11">
         <v>54</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="17">
         <v>999981</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="15">
         <v>3</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="15">
         <v>50</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="15">
         <v>50</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="15">
         <v>50</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="15">
         <v>150</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="15">
         <v>100</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55" s="15">
         <v>50</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3637,31 +3644,31 @@
       <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="17">
         <v>999982</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="15">
         <v>1</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="15">
         <v>50</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="15">
         <v>50</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="15">
         <v>50</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="15">
         <v>150</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="15">
         <v>100</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I56" s="15">
         <v>50</v>
       </c>
-      <c r="J56" s="14">
+      <c r="J56" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3669,31 +3676,31 @@
       <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="17">
         <v>999982</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="15">
         <v>2</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="15">
         <v>50</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="15">
         <v>50</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="15">
         <v>50</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="15">
         <v>150</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="15">
         <v>100</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="15">
         <v>50</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3701,31 +3708,31 @@
       <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="17">
         <v>999982</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="15">
         <v>3</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="15">
         <v>50</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="15">
         <v>50</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="15">
         <v>50</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="15">
         <v>150</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="15">
         <v>100</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I58" s="15">
         <v>50</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3733,31 +3740,31 @@
       <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="18">
         <v>999984</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="15">
         <v>1</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="15">
         <v>50</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="15">
         <v>50</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="15">
         <v>50</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="15">
         <v>150</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="15">
         <v>100</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="15">
         <v>50</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3765,31 +3772,31 @@
       <c r="A60" s="11">
         <v>59</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="18">
         <v>999984</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="15">
         <v>2</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="15">
         <v>50</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="15">
         <v>50</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="15">
         <v>50</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="15">
         <v>150</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="15">
         <v>100</v>
       </c>
-      <c r="I60" s="14">
+      <c r="I60" s="15">
         <v>50</v>
       </c>
-      <c r="J60" s="14">
+      <c r="J60" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3797,31 +3804,31 @@
       <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="18">
         <v>999984</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="15">
         <v>3</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D61" s="15">
         <v>50</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="15">
         <v>50</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="15">
         <v>50</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="15">
         <v>150</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="15">
         <v>100</v>
       </c>
-      <c r="I61" s="14">
+      <c r="I61" s="15">
         <v>50</v>
       </c>
-      <c r="J61" s="14">
+      <c r="J61" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3829,31 +3836,31 @@
       <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="18">
         <v>999985</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="15">
         <v>1</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="15">
         <v>50</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="15">
         <v>50</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="15">
         <v>50</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="15">
         <v>150</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="15">
         <v>100</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I62" s="15">
         <v>50</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3861,31 +3868,31 @@
       <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="18">
         <v>999985</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="15">
         <v>2</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D63" s="15">
         <v>50</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="15">
         <v>50</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="15">
         <v>50</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="15">
         <v>150</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="15">
         <v>100</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I63" s="15">
         <v>50</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3893,31 +3900,31 @@
       <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="18">
         <v>999985</v>
       </c>
-      <c r="C64" s="14">
+      <c r="C64" s="15">
         <v>3</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D64" s="15">
         <v>50</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="15">
         <v>50</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="15">
         <v>50</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="15">
         <v>150</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="15">
         <v>100</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I64" s="15">
         <v>50</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J64" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3925,31 +3932,31 @@
       <c r="A65" s="11">
         <v>64</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="18">
         <v>999986</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="15">
         <v>1</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="15">
         <v>50</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="15">
         <v>50</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="15">
         <v>50</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="15">
         <v>150</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="15">
         <v>100</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I65" s="15">
         <v>50</v>
       </c>
-      <c r="J65" s="14">
+      <c r="J65" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3957,31 +3964,31 @@
       <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="18">
         <v>999986</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="15">
         <v>2</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D66" s="15">
         <v>50</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="15">
         <v>50</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="15">
         <v>50</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G66" s="15">
         <v>150</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="15">
         <v>100</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I66" s="15">
         <v>50</v>
       </c>
-      <c r="J66" s="14">
+      <c r="J66" s="15">
         <v>60</v>
       </c>
     </row>
@@ -3989,31 +3996,31 @@
       <c r="A67" s="11">
         <v>66</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="18">
         <v>999986</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="15">
         <v>3</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="15">
         <v>50</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="15">
         <v>50</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="15">
         <v>50</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="15">
         <v>150</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="15">
         <v>100</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I67" s="15">
         <v>50</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J67" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4021,31 +4028,31 @@
       <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B68" s="18">
         <v>999987</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="15">
         <v>1</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="15">
         <v>50</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="15">
         <v>50</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="15">
         <v>50</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="15">
         <v>150</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="15">
         <v>100</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I68" s="15">
         <v>50</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J68" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4053,31 +4060,31 @@
       <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="18">
         <v>999987</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="15">
         <v>2</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="15">
         <v>50</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="15">
         <v>50</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="15">
         <v>50</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G69" s="15">
         <v>150</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="15">
         <v>100</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I69" s="15">
         <v>50</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J69" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4085,31 +4092,31 @@
       <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="18">
         <v>999987</v>
       </c>
-      <c r="C70" s="14">
+      <c r="C70" s="15">
         <v>3</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D70" s="15">
         <v>50</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="15">
         <v>50</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="15">
         <v>50</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="15">
         <v>150</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="15">
         <v>100</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I70" s="15">
         <v>50</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J70" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4117,31 +4124,31 @@
       <c r="A71" s="11">
         <v>70</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="18">
         <v>999988</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C71" s="15">
         <v>1</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D71" s="15">
         <v>50</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="15">
         <v>50</v>
       </c>
-      <c r="F71" s="14">
+      <c r="F71" s="15">
         <v>50</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G71" s="15">
         <v>150</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H71" s="15">
         <v>100</v>
       </c>
-      <c r="I71" s="14">
+      <c r="I71" s="15">
         <v>50</v>
       </c>
-      <c r="J71" s="14">
+      <c r="J71" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4149,31 +4156,31 @@
       <c r="A72" s="11">
         <v>71</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B72" s="18">
         <v>999988</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="15">
         <v>2</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D72" s="15">
         <v>50</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E72" s="15">
         <v>50</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="15">
         <v>50</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G72" s="15">
         <v>150</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H72" s="15">
         <v>100</v>
       </c>
-      <c r="I72" s="14">
+      <c r="I72" s="15">
         <v>50</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J72" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4181,31 +4188,31 @@
       <c r="A73" s="11">
         <v>72</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="18">
         <v>999988</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="15">
         <v>3</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="15">
         <v>50</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73" s="15">
         <v>50</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="15">
         <v>50</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G73" s="15">
         <v>150</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H73" s="15">
         <v>100</v>
       </c>
-      <c r="I73" s="14">
+      <c r="I73" s="15">
         <v>50</v>
       </c>
-      <c r="J73" s="14">
+      <c r="J73" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4216,28 +4223,28 @@
       <c r="B74" s="18">
         <v>900017</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="15">
         <v>1</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="15">
         <v>50</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="15">
         <v>50</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F74" s="15">
         <v>50</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="15">
         <v>150</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H74" s="15">
         <v>100</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I74" s="15">
         <v>50</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J74" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4248,28 +4255,28 @@
       <c r="B75" s="18">
         <v>900017</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="15">
         <v>2</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="15">
         <v>50</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="15">
         <v>50</v>
       </c>
-      <c r="F75" s="14">
+      <c r="F75" s="15">
         <v>50</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G75" s="15">
         <v>150</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H75" s="15">
         <v>100</v>
       </c>
-      <c r="I75" s="14">
+      <c r="I75" s="15">
         <v>50</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J75" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4280,28 +4287,28 @@
       <c r="B76" s="18">
         <v>900017</v>
       </c>
-      <c r="C76" s="14">
+      <c r="C76" s="15">
         <v>3</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D76" s="15">
         <v>50</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76" s="15">
         <v>50</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F76" s="15">
         <v>50</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G76" s="15">
         <v>150</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H76" s="15">
         <v>100</v>
       </c>
-      <c r="I76" s="14">
+      <c r="I76" s="15">
         <v>50</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J76" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4312,28 +4319,28 @@
       <c r="B77" s="18">
         <v>900018</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C77" s="15">
         <v>1</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="15">
         <v>50</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="15">
         <v>50</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F77" s="15">
         <v>50</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G77" s="15">
         <v>150</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H77" s="15">
         <v>100</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I77" s="15">
         <v>50</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J77" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4344,28 +4351,28 @@
       <c r="B78" s="18">
         <v>900018</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C78" s="15">
         <v>2</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D78" s="15">
         <v>50</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E78" s="15">
         <v>50</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F78" s="15">
         <v>50</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G78" s="15">
         <v>150</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H78" s="15">
         <v>100</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I78" s="15">
         <v>50</v>
       </c>
-      <c r="J78" s="14">
+      <c r="J78" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4376,28 +4383,28 @@
       <c r="B79" s="18">
         <v>900018</v>
       </c>
-      <c r="C79" s="14">
+      <c r="C79" s="15">
         <v>3</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D79" s="15">
         <v>50</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="15">
         <v>50</v>
       </c>
-      <c r="F79" s="14">
+      <c r="F79" s="15">
         <v>50</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G79" s="15">
         <v>150</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H79" s="15">
         <v>100</v>
       </c>
-      <c r="I79" s="14">
+      <c r="I79" s="15">
         <v>50</v>
       </c>
-      <c r="J79" s="14">
+      <c r="J79" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4408,28 +4415,28 @@
       <c r="B80" s="18">
         <v>900019</v>
       </c>
-      <c r="C80" s="14">
+      <c r="C80" s="15">
         <v>1</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D80" s="15">
         <v>50</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E80" s="15">
         <v>50</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F80" s="15">
         <v>50</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G80" s="15">
         <v>150</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H80" s="15">
         <v>100</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I80" s="15">
         <v>50</v>
       </c>
-      <c r="J80" s="14">
+      <c r="J80" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4440,28 +4447,28 @@
       <c r="B81" s="18">
         <v>900019</v>
       </c>
-      <c r="C81" s="14">
+      <c r="C81" s="15">
         <v>2</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="15">
         <v>50</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E81" s="15">
         <v>50</v>
       </c>
-      <c r="F81" s="14">
+      <c r="F81" s="15">
         <v>50</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G81" s="15">
         <v>150</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H81" s="15">
         <v>100</v>
       </c>
-      <c r="I81" s="14">
+      <c r="I81" s="15">
         <v>50</v>
       </c>
-      <c r="J81" s="14">
+      <c r="J81" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4472,28 +4479,28 @@
       <c r="B82" s="18">
         <v>900019</v>
       </c>
-      <c r="C82" s="14">
+      <c r="C82" s="15">
         <v>3</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D82" s="15">
         <v>50</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E82" s="15">
         <v>50</v>
       </c>
-      <c r="F82" s="14">
+      <c r="F82" s="15">
         <v>50</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G82" s="15">
         <v>150</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H82" s="15">
         <v>100</v>
       </c>
-      <c r="I82" s="14">
+      <c r="I82" s="15">
         <v>50</v>
       </c>
-      <c r="J82" s="14">
+      <c r="J82" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4504,28 +4511,28 @@
       <c r="B83" s="18">
         <v>900020</v>
       </c>
-      <c r="C83" s="14">
+      <c r="C83" s="15">
         <v>1</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D83" s="15">
         <v>50</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E83" s="15">
         <v>50</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F83" s="15">
         <v>50</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G83" s="15">
         <v>150</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H83" s="15">
         <v>100</v>
       </c>
-      <c r="I83" s="14">
+      <c r="I83" s="15">
         <v>50</v>
       </c>
-      <c r="J83" s="14">
+      <c r="J83" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4536,28 +4543,28 @@
       <c r="B84" s="18">
         <v>900020</v>
       </c>
-      <c r="C84" s="14">
+      <c r="C84" s="15">
         <v>2</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D84" s="15">
         <v>50</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E84" s="15">
         <v>50</v>
       </c>
-      <c r="F84" s="14">
+      <c r="F84" s="15">
         <v>50</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G84" s="15">
         <v>150</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H84" s="15">
         <v>100</v>
       </c>
-      <c r="I84" s="14">
+      <c r="I84" s="15">
         <v>50</v>
       </c>
-      <c r="J84" s="14">
+      <c r="J84" s="15">
         <v>60</v>
       </c>
     </row>
@@ -4568,28 +4575,604 @@
       <c r="B85" s="18">
         <v>900020</v>
       </c>
-      <c r="C85" s="14">
+      <c r="C85" s="15">
         <v>3</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D85" s="15">
         <v>50</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E85" s="15">
         <v>50</v>
       </c>
-      <c r="F85" s="14">
+      <c r="F85" s="15">
         <v>50</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G85" s="15">
         <v>150</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H85" s="15">
         <v>100</v>
       </c>
-      <c r="I85" s="14">
+      <c r="I85" s="15">
         <v>50</v>
       </c>
-      <c r="J85" s="14">
+      <c r="J85" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A86" s="19">
+        <v>85</v>
+      </c>
+      <c r="B86" s="20">
+        <v>999994</v>
+      </c>
+      <c r="C86" s="21">
+        <v>1</v>
+      </c>
+      <c r="D86" s="21">
+        <v>50</v>
+      </c>
+      <c r="E86" s="21">
+        <v>50</v>
+      </c>
+      <c r="F86" s="21">
+        <v>50</v>
+      </c>
+      <c r="G86" s="21">
+        <v>150</v>
+      </c>
+      <c r="H86" s="21">
+        <v>100</v>
+      </c>
+      <c r="I86" s="21">
+        <v>50</v>
+      </c>
+      <c r="J86" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A87" s="19">
+        <v>86</v>
+      </c>
+      <c r="B87" s="20">
+        <v>999994</v>
+      </c>
+      <c r="C87" s="21">
+        <v>2</v>
+      </c>
+      <c r="D87" s="21">
+        <v>50</v>
+      </c>
+      <c r="E87" s="21">
+        <v>50</v>
+      </c>
+      <c r="F87" s="21">
+        <v>50</v>
+      </c>
+      <c r="G87" s="21">
+        <v>150</v>
+      </c>
+      <c r="H87" s="21">
+        <v>100</v>
+      </c>
+      <c r="I87" s="21">
+        <v>50</v>
+      </c>
+      <c r="J87" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A88" s="19">
+        <v>87</v>
+      </c>
+      <c r="B88" s="20">
+        <v>999994</v>
+      </c>
+      <c r="C88" s="21">
+        <v>3</v>
+      </c>
+      <c r="D88" s="21">
+        <v>50</v>
+      </c>
+      <c r="E88" s="21">
+        <v>50</v>
+      </c>
+      <c r="F88" s="21">
+        <v>50</v>
+      </c>
+      <c r="G88" s="21">
+        <v>150</v>
+      </c>
+      <c r="H88" s="21">
+        <v>100</v>
+      </c>
+      <c r="I88" s="21">
+        <v>50</v>
+      </c>
+      <c r="J88" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A89" s="19">
+        <v>88</v>
+      </c>
+      <c r="B89" s="20">
+        <v>999995</v>
+      </c>
+      <c r="C89" s="21">
+        <v>1</v>
+      </c>
+      <c r="D89" s="21">
+        <v>50</v>
+      </c>
+      <c r="E89" s="21">
+        <v>50</v>
+      </c>
+      <c r="F89" s="21">
+        <v>50</v>
+      </c>
+      <c r="G89" s="21">
+        <v>150</v>
+      </c>
+      <c r="H89" s="21">
+        <v>100</v>
+      </c>
+      <c r="I89" s="21">
+        <v>50</v>
+      </c>
+      <c r="J89" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A90" s="19">
+        <v>89</v>
+      </c>
+      <c r="B90" s="20">
+        <v>999995</v>
+      </c>
+      <c r="C90" s="21">
+        <v>2</v>
+      </c>
+      <c r="D90" s="21">
+        <v>50</v>
+      </c>
+      <c r="E90" s="21">
+        <v>50</v>
+      </c>
+      <c r="F90" s="21">
+        <v>50</v>
+      </c>
+      <c r="G90" s="21">
+        <v>150</v>
+      </c>
+      <c r="H90" s="21">
+        <v>100</v>
+      </c>
+      <c r="I90" s="21">
+        <v>50</v>
+      </c>
+      <c r="J90" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A91" s="19">
+        <v>90</v>
+      </c>
+      <c r="B91" s="20">
+        <v>999995</v>
+      </c>
+      <c r="C91" s="21">
+        <v>3</v>
+      </c>
+      <c r="D91" s="21">
+        <v>50</v>
+      </c>
+      <c r="E91" s="21">
+        <v>50</v>
+      </c>
+      <c r="F91" s="21">
+        <v>50</v>
+      </c>
+      <c r="G91" s="21">
+        <v>150</v>
+      </c>
+      <c r="H91" s="21">
+        <v>100</v>
+      </c>
+      <c r="I91" s="21">
+        <v>50</v>
+      </c>
+      <c r="J91" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A92" s="19">
+        <v>91</v>
+      </c>
+      <c r="B92" s="20">
+        <v>999996</v>
+      </c>
+      <c r="C92" s="21">
+        <v>1</v>
+      </c>
+      <c r="D92" s="21">
+        <v>50</v>
+      </c>
+      <c r="E92" s="21">
+        <v>50</v>
+      </c>
+      <c r="F92" s="21">
+        <v>50</v>
+      </c>
+      <c r="G92" s="21">
+        <v>150</v>
+      </c>
+      <c r="H92" s="21">
+        <v>100</v>
+      </c>
+      <c r="I92" s="21">
+        <v>50</v>
+      </c>
+      <c r="J92" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A93" s="19">
+        <v>92</v>
+      </c>
+      <c r="B93" s="20">
+        <v>999996</v>
+      </c>
+      <c r="C93" s="21">
+        <v>2</v>
+      </c>
+      <c r="D93" s="21">
+        <v>50</v>
+      </c>
+      <c r="E93" s="21">
+        <v>50</v>
+      </c>
+      <c r="F93" s="21">
+        <v>50</v>
+      </c>
+      <c r="G93" s="21">
+        <v>150</v>
+      </c>
+      <c r="H93" s="21">
+        <v>100</v>
+      </c>
+      <c r="I93" s="21">
+        <v>50</v>
+      </c>
+      <c r="J93" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A94" s="19">
+        <v>93</v>
+      </c>
+      <c r="B94" s="20">
+        <v>999996</v>
+      </c>
+      <c r="C94" s="21">
+        <v>3</v>
+      </c>
+      <c r="D94" s="21">
+        <v>50</v>
+      </c>
+      <c r="E94" s="21">
+        <v>50</v>
+      </c>
+      <c r="F94" s="21">
+        <v>50</v>
+      </c>
+      <c r="G94" s="21">
+        <v>150</v>
+      </c>
+      <c r="H94" s="21">
+        <v>100</v>
+      </c>
+      <c r="I94" s="21">
+        <v>50</v>
+      </c>
+      <c r="J94" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A95" s="19">
+        <v>94</v>
+      </c>
+      <c r="B95" s="20">
+        <v>999997</v>
+      </c>
+      <c r="C95" s="21">
+        <v>1</v>
+      </c>
+      <c r="D95" s="21">
+        <v>50</v>
+      </c>
+      <c r="E95" s="21">
+        <v>50</v>
+      </c>
+      <c r="F95" s="21">
+        <v>50</v>
+      </c>
+      <c r="G95" s="21">
+        <v>150</v>
+      </c>
+      <c r="H95" s="21">
+        <v>100</v>
+      </c>
+      <c r="I95" s="21">
+        <v>50</v>
+      </c>
+      <c r="J95" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A96" s="19">
+        <v>95</v>
+      </c>
+      <c r="B96" s="20">
+        <v>999997</v>
+      </c>
+      <c r="C96" s="21">
+        <v>2</v>
+      </c>
+      <c r="D96" s="21">
+        <v>50</v>
+      </c>
+      <c r="E96" s="21">
+        <v>50</v>
+      </c>
+      <c r="F96" s="21">
+        <v>50</v>
+      </c>
+      <c r="G96" s="21">
+        <v>150</v>
+      </c>
+      <c r="H96" s="21">
+        <v>100</v>
+      </c>
+      <c r="I96" s="21">
+        <v>50</v>
+      </c>
+      <c r="J96" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A97" s="19">
+        <v>96</v>
+      </c>
+      <c r="B97" s="20">
+        <v>999997</v>
+      </c>
+      <c r="C97" s="21">
+        <v>3</v>
+      </c>
+      <c r="D97" s="21">
+        <v>50</v>
+      </c>
+      <c r="E97" s="21">
+        <v>50</v>
+      </c>
+      <c r="F97" s="21">
+        <v>50</v>
+      </c>
+      <c r="G97" s="21">
+        <v>150</v>
+      </c>
+      <c r="H97" s="21">
+        <v>100</v>
+      </c>
+      <c r="I97" s="21">
+        <v>50</v>
+      </c>
+      <c r="J97" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A98" s="19">
+        <v>97</v>
+      </c>
+      <c r="B98" s="20">
+        <v>999998</v>
+      </c>
+      <c r="C98" s="21">
+        <v>1</v>
+      </c>
+      <c r="D98" s="21">
+        <v>50</v>
+      </c>
+      <c r="E98" s="21">
+        <v>50</v>
+      </c>
+      <c r="F98" s="21">
+        <v>50</v>
+      </c>
+      <c r="G98" s="21">
+        <v>150</v>
+      </c>
+      <c r="H98" s="21">
+        <v>100</v>
+      </c>
+      <c r="I98" s="21">
+        <v>50</v>
+      </c>
+      <c r="J98" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A99" s="19">
+        <v>98</v>
+      </c>
+      <c r="B99" s="20">
+        <v>999998</v>
+      </c>
+      <c r="C99" s="21">
+        <v>2</v>
+      </c>
+      <c r="D99" s="21">
+        <v>50</v>
+      </c>
+      <c r="E99" s="21">
+        <v>50</v>
+      </c>
+      <c r="F99" s="21">
+        <v>50</v>
+      </c>
+      <c r="G99" s="21">
+        <v>150</v>
+      </c>
+      <c r="H99" s="21">
+        <v>100</v>
+      </c>
+      <c r="I99" s="21">
+        <v>50</v>
+      </c>
+      <c r="J99" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A100" s="19">
+        <v>99</v>
+      </c>
+      <c r="B100" s="20">
+        <v>999998</v>
+      </c>
+      <c r="C100" s="21">
+        <v>3</v>
+      </c>
+      <c r="D100" s="21">
+        <v>50</v>
+      </c>
+      <c r="E100" s="21">
+        <v>50</v>
+      </c>
+      <c r="F100" s="21">
+        <v>50</v>
+      </c>
+      <c r="G100" s="21">
+        <v>150</v>
+      </c>
+      <c r="H100" s="21">
+        <v>100</v>
+      </c>
+      <c r="I100" s="21">
+        <v>50</v>
+      </c>
+      <c r="J100" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A101" s="19">
+        <v>100</v>
+      </c>
+      <c r="B101" s="20">
+        <v>999999</v>
+      </c>
+      <c r="C101" s="21">
+        <v>1</v>
+      </c>
+      <c r="D101" s="21">
+        <v>50</v>
+      </c>
+      <c r="E101" s="21">
+        <v>50</v>
+      </c>
+      <c r="F101" s="21">
+        <v>50</v>
+      </c>
+      <c r="G101" s="21">
+        <v>150</v>
+      </c>
+      <c r="H101" s="21">
+        <v>100</v>
+      </c>
+      <c r="I101" s="21">
+        <v>50</v>
+      </c>
+      <c r="J101" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A102" s="19">
+        <v>101</v>
+      </c>
+      <c r="B102" s="20">
+        <v>999999</v>
+      </c>
+      <c r="C102" s="21">
+        <v>2</v>
+      </c>
+      <c r="D102" s="21">
+        <v>50</v>
+      </c>
+      <c r="E102" s="21">
+        <v>50</v>
+      </c>
+      <c r="F102" s="21">
+        <v>50</v>
+      </c>
+      <c r="G102" s="21">
+        <v>150</v>
+      </c>
+      <c r="H102" s="21">
+        <v>100</v>
+      </c>
+      <c r="I102" s="21">
+        <v>50</v>
+      </c>
+      <c r="J102" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" s="12" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A103" s="19">
+        <v>102</v>
+      </c>
+      <c r="B103" s="20">
+        <v>999999</v>
+      </c>
+      <c r="C103" s="21">
+        <v>3</v>
+      </c>
+      <c r="D103" s="21">
+        <v>50</v>
+      </c>
+      <c r="E103" s="21">
+        <v>50</v>
+      </c>
+      <c r="F103" s="21">
+        <v>50</v>
+      </c>
+      <c r="G103" s="21">
+        <v>150</v>
+      </c>
+      <c r="H103" s="21">
+        <v>100</v>
+      </c>
+      <c r="I103" s="21">
+        <v>50</v>
+      </c>
+      <c r="J103" s="21">
         <v>60</v>
       </c>
     </row>
@@ -4610,10 +5193,10 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.2545454545455" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.2545454545455" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -54173,7 +54756,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Table/Table_xls/c宠物相关/c宠物灵兽提升.xlsx
+++ b/Table/Table_xls/c宠物相关/c宠物灵兽提升.xlsx
@@ -654,10 +654,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -685,7 +685,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -697,15 +749,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,39 +774,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -779,6 +802,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,7 +818,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -800,36 +830,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -897,6 +897,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -909,25 +921,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,13 +963,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,13 +993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +1005,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,109 +1089,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,11 +1109,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,17 +1181,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color indexed="22"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color indexed="22"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color indexed="22"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,45 +1213,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1212,177 +1221,168 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1391,14 +1391,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1434,6 +1434,12 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1442,11 +1448,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1848,14 +1864,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C101" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B71" sqref="B71"/>
+      <selection pane="bottomRight" activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" customHeight="1"/>
@@ -1876,16 +1892,16 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -1908,99 +1924,99 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="16">
         <v>900001</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="17">
         <v>1</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="17">
         <v>50</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="17">
         <v>50</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="17">
         <v>50</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="17">
         <v>150</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="17">
         <v>100</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="17">
         <v>50</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="17">
         <v>60</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" s="11" customFormat="1" customHeight="1" spans="1:12">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="16">
         <v>900001</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="17">
         <v>2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="17">
         <v>50</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="17">
         <v>50</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="17">
         <v>50</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="17">
         <v>150</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="17">
         <v>100</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="17">
         <v>50</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="17">
         <v>60</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" s="11" customFormat="1" customHeight="1" spans="1:10">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="17">
         <v>900001</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="17">
         <v>3</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="17">
         <v>50</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="17">
         <v>50</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="17">
         <v>50</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="17">
         <v>150</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="17">
         <v>100</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="17">
         <v>50</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2008,99 +2024,99 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="16">
         <v>900002</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="17">
         <v>1</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="17">
         <v>50</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="17">
         <v>50</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="17">
         <v>50</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="17">
         <v>150</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="17">
         <v>100</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="17">
         <v>50</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="17">
         <v>60</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" s="11" customFormat="1" customHeight="1" spans="1:12">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="16">
         <v>900002</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="17">
         <v>2</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="17">
         <v>50</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="17">
         <v>50</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="17">
         <v>50</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="17">
         <v>150</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="17">
         <v>100</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="17">
         <v>50</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="17">
         <v>60</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" s="11" customFormat="1" customHeight="1" spans="1:10">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="16">
         <v>900002</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="17">
         <v>3</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="17">
         <v>50</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="17">
         <v>50</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="17">
         <v>50</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="17">
         <v>150</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="17">
         <v>100</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="17">
         <v>50</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2108,31 +2124,31 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="16">
         <v>900003</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="17">
         <v>1</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="17">
         <v>50</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="17">
         <v>50</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="17">
         <v>50</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="17">
         <v>150</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="17">
         <v>100</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="17">
         <v>50</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2140,31 +2156,31 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="16">
         <v>900003</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="17">
         <v>2</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="17">
         <v>50</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="17">
         <v>50</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="17">
         <v>50</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="17">
         <v>150</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="17">
         <v>100</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="17">
         <v>50</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2172,31 +2188,31 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="17">
         <v>900003</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="17">
         <v>3</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="17">
         <v>50</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="17">
         <v>50</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="17">
         <v>50</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="17">
         <v>150</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="17">
         <v>100</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="17">
         <v>50</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2204,31 +2220,31 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="16">
         <v>900004</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="17">
         <v>1</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="17">
         <v>50</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="17">
         <v>50</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="17">
         <v>50</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="17">
         <v>150</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="17">
         <v>100</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="17">
         <v>50</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2236,31 +2252,31 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="16">
         <v>900004</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="17">
         <v>2</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="17">
         <v>50</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="17">
         <v>50</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="17">
         <v>50</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="17">
         <v>150</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="17">
         <v>100</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="17">
         <v>50</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2268,31 +2284,31 @@
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="16">
         <v>900004</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="17">
         <v>3</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="17">
         <v>50</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="17">
         <v>50</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="17">
         <v>50</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="17">
         <v>150</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="17">
         <v>100</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="17">
         <v>50</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2300,31 +2316,31 @@
       <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="16">
         <v>900005</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="17">
         <v>1</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="17">
         <v>50</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="17">
         <v>50</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="17">
         <v>50</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="17">
         <v>150</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="17">
         <v>100</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="17">
         <v>50</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2332,31 +2348,31 @@
       <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="16">
         <v>900005</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="17">
         <v>2</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="17">
         <v>50</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="17">
         <v>50</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="17">
         <v>50</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="17">
         <v>150</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="17">
         <v>100</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="17">
         <v>50</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2364,31 +2380,31 @@
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="17">
         <v>900005</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="17">
         <v>3</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="17">
         <v>50</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="17">
         <v>50</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="17">
         <v>50</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="17">
         <v>150</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="17">
         <v>100</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="17">
         <v>50</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2396,31 +2412,31 @@
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="16">
         <v>900006</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="17">
         <v>1</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="17">
         <v>50</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="17">
         <v>50</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="17">
         <v>50</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="17">
         <v>150</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="17">
         <v>100</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="17">
         <v>50</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2428,31 +2444,31 @@
       <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="16">
         <v>900006</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="17">
         <v>2</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="17">
         <v>50</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="17">
         <v>50</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="17">
         <v>50</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="17">
         <v>150</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="17">
         <v>100</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="17">
         <v>50</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2460,31 +2476,31 @@
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="16">
         <v>900006</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="17">
         <v>3</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="17">
         <v>50</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="17">
         <v>50</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="17">
         <v>50</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="17">
         <v>150</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="17">
         <v>100</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="17">
         <v>50</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2492,31 +2508,31 @@
       <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="16">
         <v>900007</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="17">
         <v>1</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="17">
         <v>50</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="17">
         <v>50</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="17">
         <v>50</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="17">
         <v>150</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="17">
         <v>100</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="17">
         <v>50</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2524,31 +2540,31 @@
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="16">
         <v>900007</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="17">
         <v>2</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="17">
         <v>50</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="17">
         <v>50</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="17">
         <v>50</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="17">
         <v>150</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="17">
         <v>100</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="17">
         <v>50</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2556,31 +2572,31 @@
       <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="17">
         <v>900007</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="17">
         <v>3</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="17">
         <v>50</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="17">
         <v>50</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="17">
         <v>50</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="17">
         <v>150</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="17">
         <v>100</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="17">
         <v>50</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2588,31 +2604,31 @@
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="16">
         <v>900008</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="17">
         <v>1</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="17">
         <v>50</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="17">
         <v>50</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="17">
         <v>50</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="17">
         <v>150</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="17">
         <v>100</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="17">
         <v>50</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2620,31 +2636,31 @@
       <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="16">
         <v>900008</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="17">
         <v>2</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="17">
         <v>50</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="17">
         <v>50</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="17">
         <v>50</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="17">
         <v>150</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="17">
         <v>100</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="17">
         <v>50</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2652,31 +2668,31 @@
       <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="16">
         <v>900008</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="17">
         <v>3</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="17">
         <v>50</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="17">
         <v>50</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="17">
         <v>50</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="17">
         <v>150</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="17">
         <v>100</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="17">
         <v>50</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2684,31 +2700,31 @@
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="16">
         <v>900009</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="17">
         <v>1</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="17">
         <v>50</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="17">
         <v>50</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="17">
         <v>50</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="17">
         <v>150</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="17">
         <v>100</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="17">
         <v>50</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2716,31 +2732,31 @@
       <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="16">
         <v>900009</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="17">
         <v>2</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="17">
         <v>50</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="17">
         <v>50</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="17">
         <v>50</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="17">
         <v>150</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="17">
         <v>100</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="17">
         <v>50</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2748,31 +2764,31 @@
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="17">
         <v>900009</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="17">
         <v>3</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="17">
         <v>50</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="17">
         <v>50</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="17">
         <v>50</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="17">
         <v>150</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="17">
         <v>100</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="17">
         <v>50</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2780,31 +2796,31 @@
       <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="16">
         <v>900010</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="17">
         <v>1</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="17">
         <v>50</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="17">
         <v>50</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="17">
         <v>50</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="17">
         <v>150</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="17">
         <v>100</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="17">
         <v>50</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2812,31 +2828,31 @@
       <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="16">
         <v>900010</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="17">
         <v>2</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="17">
         <v>50</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="17">
         <v>50</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="17">
         <v>50</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="17">
         <v>150</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="17">
         <v>100</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="17">
         <v>50</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2844,31 +2860,31 @@
       <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="16">
         <v>900010</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="17">
         <v>3</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="17">
         <v>50</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="17">
         <v>50</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="17">
         <v>50</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="17">
         <v>150</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="17">
         <v>100</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="17">
         <v>50</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2876,31 +2892,31 @@
       <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="16">
         <v>900011</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="17">
         <v>1</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="17">
         <v>50</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="17">
         <v>50</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="17">
         <v>50</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="17">
         <v>150</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="17">
         <v>100</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="17">
         <v>50</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2908,31 +2924,31 @@
       <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="16">
         <v>900011</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="17">
         <v>2</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="17">
         <v>50</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="17">
         <v>50</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="17">
         <v>50</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="17">
         <v>150</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="17">
         <v>100</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="17">
         <v>50</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J33" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2940,31 +2956,31 @@
       <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="17">
         <v>900011</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="17">
         <v>3</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="17">
         <v>50</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="17">
         <v>50</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="17">
         <v>50</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="17">
         <v>150</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="17">
         <v>100</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I34" s="17">
         <v>50</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J34" s="17">
         <v>60</v>
       </c>
     </row>
@@ -2972,31 +2988,31 @@
       <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="16">
         <v>900012</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="17">
         <v>1</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="17">
         <v>50</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="17">
         <v>50</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="17">
         <v>50</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="17">
         <v>150</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="17">
         <v>100</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="17">
         <v>50</v>
       </c>
-      <c r="J35" s="15">
+      <c r="J35" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3004,31 +3020,31 @@
       <c r="A36" s="11">
         <v>35</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="16">
         <v>900012</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="17">
         <v>2</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="17">
         <v>50</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="17">
         <v>50</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="17">
         <v>50</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="17">
         <v>150</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="17">
         <v>100</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="17">
         <v>50</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J36" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3036,31 +3052,31 @@
       <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="16">
         <v>900012</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="17">
         <v>3</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="17">
         <v>50</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="17">
         <v>50</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="17">
         <v>50</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="17">
         <v>150</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="17">
         <v>100</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="17">
         <v>50</v>
       </c>
-      <c r="J37" s="15">
+      <c r="J37" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3068,31 +3084,31 @@
       <c r="A38" s="11">
         <v>37</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="16">
         <v>900013</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="17">
         <v>1</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="17">
         <v>50</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="17">
         <v>50</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="17">
         <v>50</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="17">
         <v>150</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H38" s="17">
         <v>100</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I38" s="17">
         <v>50</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J38" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3100,31 +3116,31 @@
       <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="16">
         <v>900013</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="17">
         <v>2</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="17">
         <v>50</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="17">
         <v>50</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="17">
         <v>50</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="17">
         <v>150</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="17">
         <v>100</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="17">
         <v>50</v>
       </c>
-      <c r="J39" s="15">
+      <c r="J39" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3132,31 +3148,31 @@
       <c r="A40" s="11">
         <v>39</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="17">
         <v>900013</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="17">
         <v>3</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="17">
         <v>50</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="17">
         <v>50</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="17">
         <v>50</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="17">
         <v>150</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="17">
         <v>100</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="17">
         <v>50</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3164,31 +3180,31 @@
       <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="16">
         <v>900014</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="17">
         <v>1</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="17">
         <v>50</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="17">
         <v>50</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="17">
         <v>50</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="17">
         <v>150</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H41" s="17">
         <v>100</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I41" s="17">
         <v>50</v>
       </c>
-      <c r="J41" s="15">
+      <c r="J41" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3196,31 +3212,31 @@
       <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="16">
         <v>900014</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="17">
         <v>2</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="17">
         <v>50</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="17">
         <v>50</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="17">
         <v>50</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="17">
         <v>150</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H42" s="17">
         <v>100</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I42" s="17">
         <v>50</v>
       </c>
-      <c r="J42" s="15">
+      <c r="J42" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3228,31 +3244,31 @@
       <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="16">
         <v>900014</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="17">
         <v>3</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="17">
         <v>50</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="17">
         <v>50</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="17">
         <v>50</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="17">
         <v>150</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="17">
         <v>100</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="17">
         <v>50</v>
       </c>
-      <c r="J43" s="15">
+      <c r="J43" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3260,31 +3276,31 @@
       <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="16">
         <v>900015</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="17">
         <v>1</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="17">
         <v>50</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="17">
         <v>50</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="17">
         <v>50</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="17">
         <v>150</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="17">
         <v>100</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="17">
         <v>50</v>
       </c>
-      <c r="J44" s="15">
+      <c r="J44" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3292,31 +3308,31 @@
       <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="16">
         <v>900015</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="17">
         <v>2</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="17">
         <v>50</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="17">
         <v>50</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="17">
         <v>50</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="17">
         <v>150</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="17">
         <v>100</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="17">
         <v>50</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J45" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3324,31 +3340,31 @@
       <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="17">
         <v>900015</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="17">
         <v>3</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="17">
         <v>50</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="17">
         <v>50</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="17">
         <v>50</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="17">
         <v>150</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="17">
         <v>100</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="17">
         <v>50</v>
       </c>
-      <c r="J46" s="15">
+      <c r="J46" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3356,31 +3372,31 @@
       <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="16">
         <v>900016</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="17">
         <v>1</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="17">
         <v>50</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="17">
         <v>50</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="17">
         <v>50</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="17">
         <v>150</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="17">
         <v>100</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="17">
         <v>50</v>
       </c>
-      <c r="J47" s="15">
+      <c r="J47" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3388,31 +3404,31 @@
       <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="16">
         <v>900016</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="17">
         <v>2</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="17">
         <v>50</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="17">
         <v>50</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="17">
         <v>50</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="17">
         <v>150</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="17">
         <v>100</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="17">
         <v>50</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J48" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3420,31 +3436,31 @@
       <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="16">
         <v>900016</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="17">
         <v>3</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="17">
         <v>50</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="17">
         <v>50</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="17">
         <v>50</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="17">
         <v>150</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="17">
         <v>100</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="17">
         <v>50</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J49" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3452,31 +3468,31 @@
       <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="18">
         <v>999980</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="17">
         <v>1</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="17">
         <v>50</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="17">
         <v>50</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="17">
         <v>50</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="17">
         <v>150</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="17">
         <v>100</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="17">
         <v>50</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J50" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3484,31 +3500,31 @@
       <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="18">
         <v>999980</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="17">
         <v>2</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="17">
         <v>50</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="17">
         <v>50</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="17">
         <v>50</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="17">
         <v>150</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="17">
         <v>100</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="17">
         <v>50</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J51" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3516,31 +3532,31 @@
       <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="18">
         <v>999980</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="17">
         <v>3</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="17">
         <v>50</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="17">
         <v>50</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="17">
         <v>50</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="17">
         <v>150</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="17">
         <v>100</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="17">
         <v>50</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J52" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3548,31 +3564,31 @@
       <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="19">
         <v>999981</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="17">
         <v>1</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="17">
         <v>50</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="17">
         <v>50</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="17">
         <v>50</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="17">
         <v>150</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="17">
         <v>100</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="17">
         <v>50</v>
       </c>
-      <c r="J53" s="15">
+      <c r="J53" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3580,31 +3596,31 @@
       <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="19">
         <v>999981</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="17">
         <v>2</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="17">
         <v>50</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="17">
         <v>50</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="17">
         <v>50</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="17">
         <v>150</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="17">
         <v>100</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="17">
         <v>50</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3612,31 +3628,31 @@
       <c r="A55" s="11">
         <v>54</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="19">
         <v>999981</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="17">
         <v>3</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="17">
         <v>50</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="17">
         <v>50</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="17">
         <v>50</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="17">
         <v>150</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="17">
         <v>100</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="17">
         <v>50</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3644,31 +3660,31 @@
       <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="19">
         <v>999982</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="17">
         <v>1</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="17">
         <v>50</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="17">
         <v>50</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56" s="17">
         <v>50</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="17">
         <v>150</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="17">
         <v>100</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="17">
         <v>50</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J56" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3676,31 +3692,31 @@
       <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="19">
         <v>999982</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="17">
         <v>2</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="17">
         <v>50</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="17">
         <v>50</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F57" s="17">
         <v>50</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="17">
         <v>150</v>
       </c>
-      <c r="H57" s="15">
+      <c r="H57" s="17">
         <v>100</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="17">
         <v>50</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J57" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3708,31 +3724,31 @@
       <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="19">
         <v>999982</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="17">
         <v>3</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="17">
         <v>50</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="17">
         <v>50</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F58" s="17">
         <v>50</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="17">
         <v>150</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="17">
         <v>100</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="17">
         <v>50</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J58" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3740,31 +3756,31 @@
       <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B59" s="20">
         <v>999984</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="17">
         <v>1</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="17">
         <v>50</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="17">
         <v>50</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F59" s="17">
         <v>50</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="17">
         <v>150</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="17">
         <v>100</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="17">
         <v>50</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J59" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3772,31 +3788,31 @@
       <c r="A60" s="11">
         <v>59</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="20">
         <v>999984</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="17">
         <v>2</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="17">
         <v>50</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="17">
         <v>50</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F60" s="17">
         <v>50</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G60" s="17">
         <v>150</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="17">
         <v>100</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="17">
         <v>50</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J60" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3804,31 +3820,31 @@
       <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="20">
         <v>999984</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="17">
         <v>3</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="17">
         <v>50</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="17">
         <v>50</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="17">
         <v>50</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="17">
         <v>150</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="17">
         <v>100</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="17">
         <v>50</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J61" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3836,31 +3852,31 @@
       <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="B62" s="18">
+      <c r="B62" s="20">
         <v>999985</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="17">
         <v>1</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="17">
         <v>50</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="17">
         <v>50</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F62" s="17">
         <v>50</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="17">
         <v>150</v>
       </c>
-      <c r="H62" s="15">
+      <c r="H62" s="17">
         <v>100</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I62" s="17">
         <v>50</v>
       </c>
-      <c r="J62" s="15">
+      <c r="J62" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3868,31 +3884,31 @@
       <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B63" s="18">
+      <c r="B63" s="20">
         <v>999985</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="17">
         <v>2</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="17">
         <v>50</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="17">
         <v>50</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F63" s="17">
         <v>50</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="17">
         <v>150</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H63" s="17">
         <v>100</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I63" s="17">
         <v>50</v>
       </c>
-      <c r="J63" s="15">
+      <c r="J63" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3900,31 +3916,31 @@
       <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="B64" s="18">
+      <c r="B64" s="20">
         <v>999985</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="17">
         <v>3</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="17">
         <v>50</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="17">
         <v>50</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F64" s="17">
         <v>50</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="17">
         <v>150</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H64" s="17">
         <v>100</v>
       </c>
-      <c r="I64" s="15">
+      <c r="I64" s="17">
         <v>50</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J64" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3932,31 +3948,31 @@
       <c r="A65" s="11">
         <v>64</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="20">
         <v>999986</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="17">
         <v>1</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="17">
         <v>50</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="17">
         <v>50</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F65" s="17">
         <v>50</v>
       </c>
-      <c r="G65" s="15">
+      <c r="G65" s="17">
         <v>150</v>
       </c>
-      <c r="H65" s="15">
+      <c r="H65" s="17">
         <v>100</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I65" s="17">
         <v>50</v>
       </c>
-      <c r="J65" s="15">
+      <c r="J65" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3964,31 +3980,31 @@
       <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="18">
+      <c r="B66" s="20">
         <v>999986</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="17">
         <v>2</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="17">
         <v>50</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="17">
         <v>50</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F66" s="17">
         <v>50</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="17">
         <v>150</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H66" s="17">
         <v>100</v>
       </c>
-      <c r="I66" s="15">
+      <c r="I66" s="17">
         <v>50</v>
       </c>
-      <c r="J66" s="15">
+      <c r="J66" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3996,31 +4012,31 @@
       <c r="A67" s="11">
         <v>66</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B67" s="20">
         <v>999986</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="17">
         <v>3</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="17">
         <v>50</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="17">
         <v>50</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F67" s="17">
         <v>50</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G67" s="17">
         <v>150</v>
       </c>
-      <c r="H67" s="15">
+      <c r="H67" s="17">
         <v>100</v>
       </c>
-      <c r="I67" s="15">
+      <c r="I67" s="17">
         <v>50</v>
       </c>
-      <c r="J67" s="15">
+      <c r="J67" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4028,31 +4044,31 @@
       <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B68" s="20">
         <v>999987</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="17">
         <v>1</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="17">
         <v>50</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="17">
         <v>50</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F68" s="17">
         <v>50</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="17">
         <v>150</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H68" s="17">
         <v>100</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I68" s="17">
         <v>50</v>
       </c>
-      <c r="J68" s="15">
+      <c r="J68" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4060,31 +4076,31 @@
       <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="20">
         <v>999987</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="17">
         <v>2</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="17">
         <v>50</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="17">
         <v>50</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F69" s="17">
         <v>50</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G69" s="17">
         <v>150</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H69" s="17">
         <v>100</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I69" s="17">
         <v>50</v>
       </c>
-      <c r="J69" s="15">
+      <c r="J69" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4092,31 +4108,31 @@
       <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="20">
         <v>999987</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="17">
         <v>3</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="17">
         <v>50</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="17">
         <v>50</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F70" s="17">
         <v>50</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="17">
         <v>150</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H70" s="17">
         <v>100</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I70" s="17">
         <v>50</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J70" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4124,31 +4140,31 @@
       <c r="A71" s="11">
         <v>70</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="20">
         <v>999988</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="17">
         <v>1</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="17">
         <v>50</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="17">
         <v>50</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F71" s="17">
         <v>50</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="17">
         <v>150</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="17">
         <v>100</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="17">
         <v>50</v>
       </c>
-      <c r="J71" s="15">
+      <c r="J71" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4156,31 +4172,31 @@
       <c r="A72" s="11">
         <v>71</v>
       </c>
-      <c r="B72" s="18">
+      <c r="B72" s="20">
         <v>999988</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="17">
         <v>2</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="17">
         <v>50</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="17">
         <v>50</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F72" s="17">
         <v>50</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="17">
         <v>150</v>
       </c>
-      <c r="H72" s="15">
+      <c r="H72" s="17">
         <v>100</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="17">
         <v>50</v>
       </c>
-      <c r="J72" s="15">
+      <c r="J72" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4188,31 +4204,31 @@
       <c r="A73" s="11">
         <v>72</v>
       </c>
-      <c r="B73" s="18">
+      <c r="B73" s="20">
         <v>999988</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="17">
         <v>3</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="17">
         <v>50</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="17">
         <v>50</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F73" s="17">
         <v>50</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="17">
         <v>150</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="17">
         <v>100</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="17">
         <v>50</v>
       </c>
-      <c r="J73" s="15">
+      <c r="J73" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4220,31 +4236,31 @@
       <c r="A74" s="11">
         <v>73</v>
       </c>
-      <c r="B74" s="18">
+      <c r="B74" s="20">
         <v>900017</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="17">
         <v>1</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="17">
         <v>50</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="17">
         <v>50</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F74" s="17">
         <v>50</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="17">
         <v>150</v>
       </c>
-      <c r="H74" s="15">
+      <c r="H74" s="17">
         <v>100</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="17">
         <v>50</v>
       </c>
-      <c r="J74" s="15">
+      <c r="J74" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4252,31 +4268,31 @@
       <c r="A75" s="11">
         <v>74</v>
       </c>
-      <c r="B75" s="18">
+      <c r="B75" s="20">
         <v>900017</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="17">
         <v>2</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="17">
         <v>50</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="17">
         <v>50</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F75" s="17">
         <v>50</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G75" s="17">
         <v>150</v>
       </c>
-      <c r="H75" s="15">
+      <c r="H75" s="17">
         <v>100</v>
       </c>
-      <c r="I75" s="15">
+      <c r="I75" s="17">
         <v>50</v>
       </c>
-      <c r="J75" s="15">
+      <c r="J75" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4284,31 +4300,31 @@
       <c r="A76" s="11">
         <v>75</v>
       </c>
-      <c r="B76" s="18">
+      <c r="B76" s="20">
         <v>900017</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="17">
         <v>3</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="17">
         <v>50</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="17">
         <v>50</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F76" s="17">
         <v>50</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="17">
         <v>150</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H76" s="17">
         <v>100</v>
       </c>
-      <c r="I76" s="15">
+      <c r="I76" s="17">
         <v>50</v>
       </c>
-      <c r="J76" s="15">
+      <c r="J76" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4316,31 +4332,31 @@
       <c r="A77" s="11">
         <v>76</v>
       </c>
-      <c r="B77" s="18">
+      <c r="B77" s="20">
         <v>900018</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="17">
         <v>1</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="17">
         <v>50</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="17">
         <v>50</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F77" s="17">
         <v>50</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="17">
         <v>150</v>
       </c>
-      <c r="H77" s="15">
+      <c r="H77" s="17">
         <v>100</v>
       </c>
-      <c r="I77" s="15">
+      <c r="I77" s="17">
         <v>50</v>
       </c>
-      <c r="J77" s="15">
+      <c r="J77" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4348,31 +4364,31 @@
       <c r="A78" s="11">
         <v>77</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="20">
         <v>900018</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="17">
         <v>2</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="17">
         <v>50</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="17">
         <v>50</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F78" s="17">
         <v>50</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G78" s="17">
         <v>150</v>
       </c>
-      <c r="H78" s="15">
+      <c r="H78" s="17">
         <v>100</v>
       </c>
-      <c r="I78" s="15">
+      <c r="I78" s="17">
         <v>50</v>
       </c>
-      <c r="J78" s="15">
+      <c r="J78" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4380,31 +4396,31 @@
       <c r="A79" s="11">
         <v>78</v>
       </c>
-      <c r="B79" s="18">
+      <c r="B79" s="20">
         <v>900018</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="17">
         <v>3</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="17">
         <v>50</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="17">
         <v>50</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F79" s="17">
         <v>50</v>
       </c>
-      <c r="G79" s="15">
+      <c r="G79" s="17">
         <v>150</v>
       </c>
-      <c r="H79" s="15">
+      <c r="H79" s="17">
         <v>100</v>
       </c>
-      <c r="I79" s="15">
+      <c r="I79" s="17">
         <v>50</v>
       </c>
-      <c r="J79" s="15">
+      <c r="J79" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4412,31 +4428,31 @@
       <c r="A80" s="11">
         <v>79</v>
       </c>
-      <c r="B80" s="18">
+      <c r="B80" s="20">
         <v>900019</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="17">
         <v>1</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D80" s="17">
         <v>50</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="17">
         <v>50</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F80" s="17">
         <v>50</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G80" s="17">
         <v>150</v>
       </c>
-      <c r="H80" s="15">
+      <c r="H80" s="17">
         <v>100</v>
       </c>
-      <c r="I80" s="15">
+      <c r="I80" s="17">
         <v>50</v>
       </c>
-      <c r="J80" s="15">
+      <c r="J80" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4444,31 +4460,31 @@
       <c r="A81" s="11">
         <v>80</v>
       </c>
-      <c r="B81" s="18">
+      <c r="B81" s="20">
         <v>900019</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="17">
         <v>2</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="17">
         <v>50</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="17">
         <v>50</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F81" s="17">
         <v>50</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G81" s="17">
         <v>150</v>
       </c>
-      <c r="H81" s="15">
+      <c r="H81" s="17">
         <v>100</v>
       </c>
-      <c r="I81" s="15">
+      <c r="I81" s="17">
         <v>50</v>
       </c>
-      <c r="J81" s="15">
+      <c r="J81" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4476,31 +4492,31 @@
       <c r="A82" s="11">
         <v>81</v>
       </c>
-      <c r="B82" s="18">
+      <c r="B82" s="20">
         <v>900019</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="17">
         <v>3</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="17">
         <v>50</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="17">
         <v>50</v>
       </c>
-      <c r="F82" s="15">
+      <c r="F82" s="17">
         <v>50</v>
       </c>
-      <c r="G82" s="15">
+      <c r="G82" s="17">
         <v>150</v>
       </c>
-      <c r="H82" s="15">
+      <c r="H82" s="17">
         <v>100</v>
       </c>
-      <c r="I82" s="15">
+      <c r="I82" s="17">
         <v>50</v>
       </c>
-      <c r="J82" s="15">
+      <c r="J82" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4508,31 +4524,31 @@
       <c r="A83" s="11">
         <v>82</v>
       </c>
-      <c r="B83" s="18">
+      <c r="B83" s="20">
         <v>900020</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="17">
         <v>1</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="17">
         <v>50</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="17">
         <v>50</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F83" s="17">
         <v>50</v>
       </c>
-      <c r="G83" s="15">
+      <c r="G83" s="17">
         <v>150</v>
       </c>
-      <c r="H83" s="15">
+      <c r="H83" s="17">
         <v>100</v>
       </c>
-      <c r="I83" s="15">
+      <c r="I83" s="17">
         <v>50</v>
       </c>
-      <c r="J83" s="15">
+      <c r="J83" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4540,31 +4556,31 @@
       <c r="A84" s="11">
         <v>83</v>
       </c>
-      <c r="B84" s="18">
+      <c r="B84" s="20">
         <v>900020</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="17">
         <v>2</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="17">
         <v>50</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="17">
         <v>50</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F84" s="17">
         <v>50</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G84" s="17">
         <v>150</v>
       </c>
-      <c r="H84" s="15">
+      <c r="H84" s="17">
         <v>100</v>
       </c>
-      <c r="I84" s="15">
+      <c r="I84" s="17">
         <v>50</v>
       </c>
-      <c r="J84" s="15">
+      <c r="J84" s="17">
         <v>60</v>
       </c>
     </row>
@@ -4572,607 +4588,991 @@
       <c r="A85" s="11">
         <v>84</v>
       </c>
-      <c r="B85" s="18">
+      <c r="B85" s="20">
         <v>900020</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="17">
         <v>3</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="17">
         <v>50</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="17">
         <v>50</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F85" s="17">
         <v>50</v>
       </c>
-      <c r="G85" s="15">
+      <c r="G85" s="17">
         <v>150</v>
       </c>
-      <c r="H85" s="15">
+      <c r="H85" s="17">
         <v>100</v>
       </c>
-      <c r="I85" s="15">
+      <c r="I85" s="17">
         <v>50</v>
       </c>
-      <c r="J85" s="15">
+      <c r="J85" s="17">
         <v>60</v>
       </c>
     </row>
     <row r="86" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A86" s="19">
+      <c r="A86" s="21">
         <v>85</v>
       </c>
-      <c r="B86" s="20">
+      <c r="B86" s="18">
         <v>999994</v>
       </c>
-      <c r="C86" s="21">
+      <c r="C86" s="22">
         <v>1</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D86" s="22">
         <v>50</v>
       </c>
-      <c r="E86" s="21">
+      <c r="E86" s="22">
         <v>50</v>
       </c>
-      <c r="F86" s="21">
+      <c r="F86" s="22">
         <v>50</v>
       </c>
-      <c r="G86" s="21">
+      <c r="G86" s="22">
         <v>150</v>
       </c>
-      <c r="H86" s="21">
+      <c r="H86" s="22">
         <v>100</v>
       </c>
-      <c r="I86" s="21">
+      <c r="I86" s="22">
         <v>50</v>
       </c>
-      <c r="J86" s="21">
+      <c r="J86" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="87" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A87" s="19">
+      <c r="A87" s="21">
         <v>86</v>
       </c>
-      <c r="B87" s="20">
+      <c r="B87" s="18">
         <v>999994</v>
       </c>
-      <c r="C87" s="21">
+      <c r="C87" s="22">
         <v>2</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D87" s="22">
         <v>50</v>
       </c>
-      <c r="E87" s="21">
+      <c r="E87" s="22">
         <v>50</v>
       </c>
-      <c r="F87" s="21">
+      <c r="F87" s="22">
         <v>50</v>
       </c>
-      <c r="G87" s="21">
+      <c r="G87" s="22">
         <v>150</v>
       </c>
-      <c r="H87" s="21">
+      <c r="H87" s="22">
         <v>100</v>
       </c>
-      <c r="I87" s="21">
+      <c r="I87" s="22">
         <v>50</v>
       </c>
-      <c r="J87" s="21">
+      <c r="J87" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="88" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A88" s="19">
+      <c r="A88" s="21">
         <v>87</v>
       </c>
-      <c r="B88" s="20">
+      <c r="B88" s="18">
         <v>999994</v>
       </c>
-      <c r="C88" s="21">
+      <c r="C88" s="22">
         <v>3</v>
       </c>
-      <c r="D88" s="21">
+      <c r="D88" s="22">
         <v>50</v>
       </c>
-      <c r="E88" s="21">
+      <c r="E88" s="22">
         <v>50</v>
       </c>
-      <c r="F88" s="21">
+      <c r="F88" s="22">
         <v>50</v>
       </c>
-      <c r="G88" s="21">
+      <c r="G88" s="22">
         <v>150</v>
       </c>
-      <c r="H88" s="21">
+      <c r="H88" s="22">
         <v>100</v>
       </c>
-      <c r="I88" s="21">
+      <c r="I88" s="22">
         <v>50</v>
       </c>
-      <c r="J88" s="21">
+      <c r="J88" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="89" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A89" s="19">
+      <c r="A89" s="21">
         <v>88</v>
       </c>
-      <c r="B89" s="20">
+      <c r="B89" s="18">
         <v>999995</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89" s="22">
         <v>1</v>
       </c>
-      <c r="D89" s="21">
+      <c r="D89" s="22">
         <v>50</v>
       </c>
-      <c r="E89" s="21">
+      <c r="E89" s="22">
         <v>50</v>
       </c>
-      <c r="F89" s="21">
+      <c r="F89" s="22">
         <v>50</v>
       </c>
-      <c r="G89" s="21">
+      <c r="G89" s="22">
         <v>150</v>
       </c>
-      <c r="H89" s="21">
+      <c r="H89" s="22">
         <v>100</v>
       </c>
-      <c r="I89" s="21">
+      <c r="I89" s="22">
         <v>50</v>
       </c>
-      <c r="J89" s="21">
+      <c r="J89" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="90" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A90" s="19">
+      <c r="A90" s="21">
         <v>89</v>
       </c>
-      <c r="B90" s="20">
+      <c r="B90" s="18">
         <v>999995</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90" s="22">
         <v>2</v>
       </c>
-      <c r="D90" s="21">
+      <c r="D90" s="22">
         <v>50</v>
       </c>
-      <c r="E90" s="21">
+      <c r="E90" s="22">
         <v>50</v>
       </c>
-      <c r="F90" s="21">
+      <c r="F90" s="22">
         <v>50</v>
       </c>
-      <c r="G90" s="21">
+      <c r="G90" s="22">
         <v>150</v>
       </c>
-      <c r="H90" s="21">
+      <c r="H90" s="22">
         <v>100</v>
       </c>
-      <c r="I90" s="21">
+      <c r="I90" s="22">
         <v>50</v>
       </c>
-      <c r="J90" s="21">
+      <c r="J90" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="91" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A91" s="19">
+      <c r="A91" s="21">
         <v>90</v>
       </c>
-      <c r="B91" s="20">
+      <c r="B91" s="18">
         <v>999995</v>
       </c>
-      <c r="C91" s="21">
+      <c r="C91" s="22">
         <v>3</v>
       </c>
-      <c r="D91" s="21">
+      <c r="D91" s="22">
         <v>50</v>
       </c>
-      <c r="E91" s="21">
+      <c r="E91" s="22">
         <v>50</v>
       </c>
-      <c r="F91" s="21">
+      <c r="F91" s="22">
         <v>50</v>
       </c>
-      <c r="G91" s="21">
+      <c r="G91" s="22">
         <v>150</v>
       </c>
-      <c r="H91" s="21">
+      <c r="H91" s="22">
         <v>100</v>
       </c>
-      <c r="I91" s="21">
+      <c r="I91" s="22">
         <v>50</v>
       </c>
-      <c r="J91" s="21">
+      <c r="J91" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="92" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A92" s="19">
+      <c r="A92" s="21">
         <v>91</v>
       </c>
-      <c r="B92" s="20">
+      <c r="B92" s="18">
         <v>999996</v>
       </c>
-      <c r="C92" s="21">
+      <c r="C92" s="22">
         <v>1</v>
       </c>
-      <c r="D92" s="21">
+      <c r="D92" s="22">
         <v>50</v>
       </c>
-      <c r="E92" s="21">
+      <c r="E92" s="22">
         <v>50</v>
       </c>
-      <c r="F92" s="21">
+      <c r="F92" s="22">
         <v>50</v>
       </c>
-      <c r="G92" s="21">
+      <c r="G92" s="22">
         <v>150</v>
       </c>
-      <c r="H92" s="21">
+      <c r="H92" s="22">
         <v>100</v>
       </c>
-      <c r="I92" s="21">
+      <c r="I92" s="22">
         <v>50</v>
       </c>
-      <c r="J92" s="21">
+      <c r="J92" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="93" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A93" s="19">
+      <c r="A93" s="21">
         <v>92</v>
       </c>
-      <c r="B93" s="20">
+      <c r="B93" s="18">
         <v>999996</v>
       </c>
-      <c r="C93" s="21">
+      <c r="C93" s="22">
         <v>2</v>
       </c>
-      <c r="D93" s="21">
+      <c r="D93" s="22">
         <v>50</v>
       </c>
-      <c r="E93" s="21">
+      <c r="E93" s="22">
         <v>50</v>
       </c>
-      <c r="F93" s="21">
+      <c r="F93" s="22">
         <v>50</v>
       </c>
-      <c r="G93" s="21">
+      <c r="G93" s="22">
         <v>150</v>
       </c>
-      <c r="H93" s="21">
+      <c r="H93" s="22">
         <v>100</v>
       </c>
-      <c r="I93" s="21">
+      <c r="I93" s="22">
         <v>50</v>
       </c>
-      <c r="J93" s="21">
+      <c r="J93" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="94" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A94" s="19">
+      <c r="A94" s="21">
         <v>93</v>
       </c>
-      <c r="B94" s="20">
+      <c r="B94" s="18">
         <v>999996</v>
       </c>
-      <c r="C94" s="21">
+      <c r="C94" s="22">
         <v>3</v>
       </c>
-      <c r="D94" s="21">
+      <c r="D94" s="22">
         <v>50</v>
       </c>
-      <c r="E94" s="21">
+      <c r="E94" s="22">
         <v>50</v>
       </c>
-      <c r="F94" s="21">
+      <c r="F94" s="22">
         <v>50</v>
       </c>
-      <c r="G94" s="21">
+      <c r="G94" s="22">
         <v>150</v>
       </c>
-      <c r="H94" s="21">
+      <c r="H94" s="22">
         <v>100</v>
       </c>
-      <c r="I94" s="21">
+      <c r="I94" s="22">
         <v>50</v>
       </c>
-      <c r="J94" s="21">
+      <c r="J94" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="95" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A95" s="19">
+      <c r="A95" s="21">
         <v>94</v>
       </c>
-      <c r="B95" s="20">
+      <c r="B95" s="18">
         <v>999997</v>
       </c>
-      <c r="C95" s="21">
+      <c r="C95" s="22">
         <v>1</v>
       </c>
-      <c r="D95" s="21">
+      <c r="D95" s="22">
         <v>50</v>
       </c>
-      <c r="E95" s="21">
+      <c r="E95" s="22">
         <v>50</v>
       </c>
-      <c r="F95" s="21">
+      <c r="F95" s="22">
         <v>50</v>
       </c>
-      <c r="G95" s="21">
+      <c r="G95" s="22">
         <v>150</v>
       </c>
-      <c r="H95" s="21">
+      <c r="H95" s="22">
         <v>100</v>
       </c>
-      <c r="I95" s="21">
+      <c r="I95" s="22">
         <v>50</v>
       </c>
-      <c r="J95" s="21">
+      <c r="J95" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="96" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A96" s="19">
+      <c r="A96" s="21">
         <v>95</v>
       </c>
-      <c r="B96" s="20">
+      <c r="B96" s="18">
         <v>999997</v>
       </c>
-      <c r="C96" s="21">
+      <c r="C96" s="22">
         <v>2</v>
       </c>
-      <c r="D96" s="21">
+      <c r="D96" s="22">
         <v>50</v>
       </c>
-      <c r="E96" s="21">
+      <c r="E96" s="22">
         <v>50</v>
       </c>
-      <c r="F96" s="21">
+      <c r="F96" s="22">
         <v>50</v>
       </c>
-      <c r="G96" s="21">
+      <c r="G96" s="22">
         <v>150</v>
       </c>
-      <c r="H96" s="21">
+      <c r="H96" s="22">
         <v>100</v>
       </c>
-      <c r="I96" s="21">
+      <c r="I96" s="22">
         <v>50</v>
       </c>
-      <c r="J96" s="21">
+      <c r="J96" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="97" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A97" s="19">
+      <c r="A97" s="21">
         <v>96</v>
       </c>
-      <c r="B97" s="20">
+      <c r="B97" s="18">
         <v>999997</v>
       </c>
-      <c r="C97" s="21">
+      <c r="C97" s="22">
         <v>3</v>
       </c>
-      <c r="D97" s="21">
+      <c r="D97" s="22">
         <v>50</v>
       </c>
-      <c r="E97" s="21">
+      <c r="E97" s="22">
         <v>50</v>
       </c>
-      <c r="F97" s="21">
+      <c r="F97" s="22">
         <v>50</v>
       </c>
-      <c r="G97" s="21">
+      <c r="G97" s="22">
         <v>150</v>
       </c>
-      <c r="H97" s="21">
+      <c r="H97" s="22">
         <v>100</v>
       </c>
-      <c r="I97" s="21">
+      <c r="I97" s="22">
         <v>50</v>
       </c>
-      <c r="J97" s="21">
+      <c r="J97" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="98" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A98" s="19">
+      <c r="A98" s="21">
         <v>97</v>
       </c>
-      <c r="B98" s="20">
+      <c r="B98" s="18">
         <v>999998</v>
       </c>
-      <c r="C98" s="21">
+      <c r="C98" s="22">
         <v>1</v>
       </c>
-      <c r="D98" s="21">
+      <c r="D98" s="22">
         <v>50</v>
       </c>
-      <c r="E98" s="21">
+      <c r="E98" s="22">
         <v>50</v>
       </c>
-      <c r="F98" s="21">
+      <c r="F98" s="22">
         <v>50</v>
       </c>
-      <c r="G98" s="21">
+      <c r="G98" s="22">
         <v>150</v>
       </c>
-      <c r="H98" s="21">
+      <c r="H98" s="22">
         <v>100</v>
       </c>
-      <c r="I98" s="21">
+      <c r="I98" s="22">
         <v>50</v>
       </c>
-      <c r="J98" s="21">
+      <c r="J98" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="99" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A99" s="19">
+      <c r="A99" s="21">
         <v>98</v>
       </c>
-      <c r="B99" s="20">
+      <c r="B99" s="18">
         <v>999998</v>
       </c>
-      <c r="C99" s="21">
+      <c r="C99" s="22">
         <v>2</v>
       </c>
-      <c r="D99" s="21">
+      <c r="D99" s="22">
         <v>50</v>
       </c>
-      <c r="E99" s="21">
+      <c r="E99" s="22">
         <v>50</v>
       </c>
-      <c r="F99" s="21">
+      <c r="F99" s="22">
         <v>50</v>
       </c>
-      <c r="G99" s="21">
+      <c r="G99" s="22">
         <v>150</v>
       </c>
-      <c r="H99" s="21">
+      <c r="H99" s="22">
         <v>100</v>
       </c>
-      <c r="I99" s="21">
+      <c r="I99" s="22">
         <v>50</v>
       </c>
-      <c r="J99" s="21">
+      <c r="J99" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="100" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A100" s="19">
+      <c r="A100" s="21">
         <v>99</v>
       </c>
-      <c r="B100" s="20">
+      <c r="B100" s="18">
         <v>999998</v>
       </c>
-      <c r="C100" s="21">
+      <c r="C100" s="22">
         <v>3</v>
       </c>
-      <c r="D100" s="21">
+      <c r="D100" s="22">
         <v>50</v>
       </c>
-      <c r="E100" s="21">
+      <c r="E100" s="22">
         <v>50</v>
       </c>
-      <c r="F100" s="21">
+      <c r="F100" s="22">
         <v>50</v>
       </c>
-      <c r="G100" s="21">
+      <c r="G100" s="22">
         <v>150</v>
       </c>
-      <c r="H100" s="21">
+      <c r="H100" s="22">
         <v>100</v>
       </c>
-      <c r="I100" s="21">
+      <c r="I100" s="22">
         <v>50</v>
       </c>
-      <c r="J100" s="21">
+      <c r="J100" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="101" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A101" s="19">
+      <c r="A101" s="21">
         <v>100</v>
       </c>
-      <c r="B101" s="20">
+      <c r="B101" s="18">
         <v>999999</v>
       </c>
-      <c r="C101" s="21">
+      <c r="C101" s="22">
         <v>1</v>
       </c>
-      <c r="D101" s="21">
+      <c r="D101" s="22">
         <v>50</v>
       </c>
-      <c r="E101" s="21">
+      <c r="E101" s="22">
         <v>50</v>
       </c>
-      <c r="F101" s="21">
+      <c r="F101" s="22">
         <v>50</v>
       </c>
-      <c r="G101" s="21">
+      <c r="G101" s="22">
         <v>150</v>
       </c>
-      <c r="H101" s="21">
+      <c r="H101" s="22">
         <v>100</v>
       </c>
-      <c r="I101" s="21">
+      <c r="I101" s="22">
         <v>50</v>
       </c>
-      <c r="J101" s="21">
+      <c r="J101" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="102" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A102" s="19">
+      <c r="A102" s="21">
         <v>101</v>
       </c>
-      <c r="B102" s="20">
+      <c r="B102" s="18">
         <v>999999</v>
       </c>
-      <c r="C102" s="21">
+      <c r="C102" s="22">
         <v>2</v>
       </c>
-      <c r="D102" s="21">
+      <c r="D102" s="22">
         <v>50</v>
       </c>
-      <c r="E102" s="21">
+      <c r="E102" s="22">
         <v>50</v>
       </c>
-      <c r="F102" s="21">
+      <c r="F102" s="22">
         <v>50</v>
       </c>
-      <c r="G102" s="21">
+      <c r="G102" s="22">
         <v>150</v>
       </c>
-      <c r="H102" s="21">
+      <c r="H102" s="22">
         <v>100</v>
       </c>
-      <c r="I102" s="21">
+      <c r="I102" s="22">
         <v>50</v>
       </c>
-      <c r="J102" s="21">
+      <c r="J102" s="22">
         <v>60</v>
       </c>
     </row>
     <row r="103" s="12" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A103" s="19">
+      <c r="A103" s="21">
         <v>102</v>
       </c>
-      <c r="B103" s="20">
+      <c r="B103" s="18">
         <v>999999</v>
       </c>
-      <c r="C103" s="21">
+      <c r="C103" s="22">
         <v>3</v>
       </c>
-      <c r="D103" s="21">
+      <c r="D103" s="22">
         <v>50</v>
       </c>
-      <c r="E103" s="21">
+      <c r="E103" s="22">
         <v>50</v>
       </c>
-      <c r="F103" s="21">
+      <c r="F103" s="22">
         <v>50</v>
       </c>
-      <c r="G103" s="21">
+      <c r="G103" s="22">
         <v>150</v>
       </c>
-      <c r="H103" s="21">
+      <c r="H103" s="22">
         <v>100</v>
       </c>
-      <c r="I103" s="21">
+      <c r="I103" s="22">
         <v>50</v>
       </c>
-      <c r="J103" s="21">
+      <c r="J103" s="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" s="13" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A104" s="23">
+        <v>103</v>
+      </c>
+      <c r="B104" s="24">
+        <v>888903</v>
+      </c>
+      <c r="C104" s="25">
+        <v>1</v>
+      </c>
+      <c r="D104" s="25">
+        <v>50</v>
+      </c>
+      <c r="E104" s="25">
+        <v>50</v>
+      </c>
+      <c r="F104" s="25">
+        <v>50</v>
+      </c>
+      <c r="G104" s="25">
+        <v>150</v>
+      </c>
+      <c r="H104" s="25">
+        <v>100</v>
+      </c>
+      <c r="I104" s="25">
+        <v>50</v>
+      </c>
+      <c r="J104" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" s="13" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A105" s="23">
+        <v>104</v>
+      </c>
+      <c r="B105" s="24">
+        <v>888903</v>
+      </c>
+      <c r="C105" s="25">
+        <v>2</v>
+      </c>
+      <c r="D105" s="25">
+        <v>50</v>
+      </c>
+      <c r="E105" s="25">
+        <v>50</v>
+      </c>
+      <c r="F105" s="25">
+        <v>50</v>
+      </c>
+      <c r="G105" s="25">
+        <v>150</v>
+      </c>
+      <c r="H105" s="25">
+        <v>100</v>
+      </c>
+      <c r="I105" s="25">
+        <v>50</v>
+      </c>
+      <c r="J105" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" s="13" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A106" s="23">
+        <v>105</v>
+      </c>
+      <c r="B106" s="24">
+        <v>888903</v>
+      </c>
+      <c r="C106" s="25">
+        <v>3</v>
+      </c>
+      <c r="D106" s="25">
+        <v>50</v>
+      </c>
+      <c r="E106" s="25">
+        <v>50</v>
+      </c>
+      <c r="F106" s="25">
+        <v>50</v>
+      </c>
+      <c r="G106" s="25">
+        <v>150</v>
+      </c>
+      <c r="H106" s="25">
+        <v>100</v>
+      </c>
+      <c r="I106" s="25">
+        <v>50</v>
+      </c>
+      <c r="J106" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" s="13" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A107" s="23">
+        <v>106</v>
+      </c>
+      <c r="B107" s="24">
+        <v>888904</v>
+      </c>
+      <c r="C107" s="25">
+        <v>1</v>
+      </c>
+      <c r="D107" s="25">
+        <v>50</v>
+      </c>
+      <c r="E107" s="25">
+        <v>50</v>
+      </c>
+      <c r="F107" s="25">
+        <v>50</v>
+      </c>
+      <c r="G107" s="25">
+        <v>150</v>
+      </c>
+      <c r="H107" s="25">
+        <v>100</v>
+      </c>
+      <c r="I107" s="25">
+        <v>50</v>
+      </c>
+      <c r="J107" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" s="13" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A108" s="23">
+        <v>107</v>
+      </c>
+      <c r="B108" s="24">
+        <v>888904</v>
+      </c>
+      <c r="C108" s="25">
+        <v>2</v>
+      </c>
+      <c r="D108" s="25">
+        <v>50</v>
+      </c>
+      <c r="E108" s="25">
+        <v>50</v>
+      </c>
+      <c r="F108" s="25">
+        <v>50</v>
+      </c>
+      <c r="G108" s="25">
+        <v>150</v>
+      </c>
+      <c r="H108" s="25">
+        <v>100</v>
+      </c>
+      <c r="I108" s="25">
+        <v>50</v>
+      </c>
+      <c r="J108" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" s="13" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A109" s="23">
+        <v>108</v>
+      </c>
+      <c r="B109" s="24">
+        <v>888904</v>
+      </c>
+      <c r="C109" s="25">
+        <v>3</v>
+      </c>
+      <c r="D109" s="25">
+        <v>50</v>
+      </c>
+      <c r="E109" s="25">
+        <v>50</v>
+      </c>
+      <c r="F109" s="25">
+        <v>50</v>
+      </c>
+      <c r="G109" s="25">
+        <v>150</v>
+      </c>
+      <c r="H109" s="25">
+        <v>100</v>
+      </c>
+      <c r="I109" s="25">
+        <v>50</v>
+      </c>
+      <c r="J109" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" s="14" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A110" s="26">
+        <v>109</v>
+      </c>
+      <c r="B110" s="24">
+        <v>888892</v>
+      </c>
+      <c r="C110" s="27">
+        <v>1</v>
+      </c>
+      <c r="D110" s="27">
+        <v>50</v>
+      </c>
+      <c r="E110" s="27">
+        <v>50</v>
+      </c>
+      <c r="F110" s="27">
+        <v>50</v>
+      </c>
+      <c r="G110" s="27">
+        <v>150</v>
+      </c>
+      <c r="H110" s="27">
+        <v>100</v>
+      </c>
+      <c r="I110" s="27">
+        <v>50</v>
+      </c>
+      <c r="J110" s="27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" s="14" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A111" s="26">
+        <v>110</v>
+      </c>
+      <c r="B111" s="24">
+        <v>888892</v>
+      </c>
+      <c r="C111" s="27">
+        <v>2</v>
+      </c>
+      <c r="D111" s="27">
+        <v>50</v>
+      </c>
+      <c r="E111" s="27">
+        <v>50</v>
+      </c>
+      <c r="F111" s="27">
+        <v>50</v>
+      </c>
+      <c r="G111" s="27">
+        <v>150</v>
+      </c>
+      <c r="H111" s="27">
+        <v>100</v>
+      </c>
+      <c r="I111" s="27">
+        <v>50</v>
+      </c>
+      <c r="J111" s="27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" s="14" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A112" s="26">
+        <v>111</v>
+      </c>
+      <c r="B112" s="24">
+        <v>888892</v>
+      </c>
+      <c r="C112" s="27">
+        <v>3</v>
+      </c>
+      <c r="D112" s="27">
+        <v>50</v>
+      </c>
+      <c r="E112" s="27">
+        <v>50</v>
+      </c>
+      <c r="F112" s="27">
+        <v>50</v>
+      </c>
+      <c r="G112" s="27">
+        <v>150</v>
+      </c>
+      <c r="H112" s="27">
+        <v>100</v>
+      </c>
+      <c r="I112" s="27">
+        <v>50</v>
+      </c>
+      <c r="J112" s="27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" s="13" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A113" s="26">
+        <v>112</v>
+      </c>
+      <c r="B113" s="24">
+        <v>888905</v>
+      </c>
+      <c r="C113" s="25">
+        <v>1</v>
+      </c>
+      <c r="D113" s="25">
+        <v>50</v>
+      </c>
+      <c r="E113" s="25">
+        <v>50</v>
+      </c>
+      <c r="F113" s="25">
+        <v>50</v>
+      </c>
+      <c r="G113" s="25">
+        <v>150</v>
+      </c>
+      <c r="H113" s="25">
+        <v>100</v>
+      </c>
+      <c r="I113" s="25">
+        <v>50</v>
+      </c>
+      <c r="J113" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" s="13" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A114" s="26">
+        <v>113</v>
+      </c>
+      <c r="B114" s="24">
+        <v>888905</v>
+      </c>
+      <c r="C114" s="25">
+        <v>2</v>
+      </c>
+      <c r="D114" s="25">
+        <v>50</v>
+      </c>
+      <c r="E114" s="25">
+        <v>50</v>
+      </c>
+      <c r="F114" s="25">
+        <v>50</v>
+      </c>
+      <c r="G114" s="25">
+        <v>150</v>
+      </c>
+      <c r="H114" s="25">
+        <v>100</v>
+      </c>
+      <c r="I114" s="25">
+        <v>50</v>
+      </c>
+      <c r="J114" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" s="13" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A115" s="26">
+        <v>114</v>
+      </c>
+      <c r="B115" s="24">
+        <v>888905</v>
+      </c>
+      <c r="C115" s="25">
+        <v>3</v>
+      </c>
+      <c r="D115" s="25">
+        <v>50</v>
+      </c>
+      <c r="E115" s="25">
+        <v>50</v>
+      </c>
+      <c r="F115" s="25">
+        <v>50</v>
+      </c>
+      <c r="G115" s="25">
+        <v>150</v>
+      </c>
+      <c r="H115" s="25">
+        <v>100</v>
+      </c>
+      <c r="I115" s="25">
+        <v>50</v>
+      </c>
+      <c r="J115" s="25">
         <v>60</v>
       </c>
     </row>
